--- a/02_客户资料/事业项目部导入表/ok_数据初始化收集模板（完整版） -事业部.xlsx
+++ b/02_客户资料/事业项目部导入表/ok_数据初始化收集模板（完整版） -事业部.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cqiyi\git\hply\02_客户资料\事业项目部导入表\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21720" windowHeight="11985" tabRatio="838"/>
   </bookViews>
   <sheets>
     <sheet name="00_数据初始化" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1756,8 +1751,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="180" formatCode="#.0000"/>
-    <numFmt numFmtId="181" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="176" formatCode="#.0000"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -1866,41 +1861,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2176,7 +2171,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2186,9 +2181,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="Y1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="AC1" sqref="AC1:AC1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -2556,15 +2551,15 @@
       <c r="AA3" s="4"/>
       <c r="AB3" s="4"/>
       <c r="AC3" s="4">
-        <v>7381694.04</v>
+        <v>6887046.5999999996</v>
       </c>
       <c r="AD3" s="4">
         <f t="shared" ref="AD3:AD66" si="2">AC3</f>
-        <v>7381694.04</v>
+        <v>6887046.5999999996</v>
       </c>
       <c r="AE3" s="4">
         <f>AC3/M3</f>
-        <v>0.98492737930310792</v>
+        <v>0.91892737928709645</v>
       </c>
       <c r="AF3" s="4"/>
       <c r="AG3" s="4"/>
@@ -2667,15 +2662,15 @@
       <c r="AA4" s="4"/>
       <c r="AB4" s="4"/>
       <c r="AC4" s="4">
-        <v>2641685</v>
+        <v>2424982.4300000002</v>
       </c>
       <c r="AD4" s="4">
         <f t="shared" si="2"/>
-        <v>2641685</v>
+        <v>2424982.4300000002</v>
       </c>
       <c r="AE4" s="4">
-        <f t="shared" ref="AE4:AE66" si="7">AC4/M4</f>
-        <v>0.80456458514034879</v>
+        <f>AC4/M4</f>
+        <v>0.73856458387945001</v>
       </c>
       <c r="AF4" s="4"/>
       <c r="AG4" s="4"/>
@@ -2690,7 +2685,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="AN4" s="4">
-        <f t="shared" ref="AN4:AN66" si="8">M4*AM4</f>
+        <f>M4*AM4</f>
         <v>111634.65514</v>
       </c>
       <c r="AO4" s="4">
@@ -2777,15 +2772,15 @@
       <c r="AA5" s="4"/>
       <c r="AB5" s="4"/>
       <c r="AC5" s="4">
-        <v>6569639.2000000002</v>
+        <v>6093643.9700000007</v>
       </c>
       <c r="AD5" s="4">
         <f t="shared" si="2"/>
-        <v>6569639.2000000002</v>
+        <v>6093643.9700000007</v>
       </c>
       <c r="AE5" s="4">
-        <f t="shared" si="7"/>
-        <v>0.91092548040092358</v>
+        <f>AC5/M5</f>
+        <v>0.84492548095555098</v>
       </c>
       <c r="AF5" s="4"/>
       <c r="AG5" s="4"/>
@@ -2800,7 +2795,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="AN5" s="4">
-        <f t="shared" si="8"/>
+        <f>M5*AM5</f>
         <v>245209.66600000003</v>
       </c>
       <c r="AO5" s="4">
@@ -2991,14 +2986,14 @@
         <v>6.6000000000000003E-2</v>
       </c>
       <c r="W7" s="4">
-        <f t="shared" ref="W7:W9" si="9">M7*V7</f>
+        <f t="shared" ref="W7:W9" si="7">M7*V7</f>
         <v>216702.56586</v>
       </c>
       <c r="X7" s="4">
         <v>216702.57</v>
       </c>
       <c r="Y7" s="4">
-        <f t="shared" ref="Y7:Y10" si="10">X7</f>
+        <f t="shared" ref="Y7:Y10" si="8">X7</f>
         <v>216702.57</v>
       </c>
       <c r="Z7" s="4">
@@ -3008,15 +3003,15 @@
       <c r="AA7" s="4"/>
       <c r="AB7" s="4"/>
       <c r="AC7" s="4">
-        <v>2641685</v>
+        <v>2424982.4300000002</v>
       </c>
       <c r="AD7" s="4">
-        <f t="shared" ref="AD7:AD12" si="11">AC7</f>
-        <v>2641685</v>
+        <f t="shared" ref="AD7:AD12" si="9">AC7</f>
+        <v>2424982.4300000002</v>
       </c>
       <c r="AE7" s="4">
-        <f t="shared" ref="AE7:AE10" si="12">AC7/M7</f>
-        <v>0.80456458514034879</v>
+        <f>AC7/M7</f>
+        <v>0.73856458387945001</v>
       </c>
       <c r="AF7" s="4"/>
       <c r="AG7" s="4"/>
@@ -3031,18 +3026,18 @@
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="AN7" s="4">
-        <f t="shared" ref="AN7:AN10" si="13">M7*AM7</f>
+        <f>M7*AM7</f>
         <v>111634.65514</v>
       </c>
       <c r="AO7" s="4">
         <v>89817.29</v>
       </c>
       <c r="AP7" s="4">
-        <f t="shared" ref="AP7:AP10" si="14">AO7</f>
+        <f t="shared" ref="AP7:AP10" si="10">AO7</f>
         <v>89817.29</v>
       </c>
       <c r="AQ7" s="4">
-        <f t="shared" ref="AQ7:AQ10" si="15">AN7-AO7</f>
+        <f t="shared" ref="AQ7:AQ10" si="11">AN7-AO7</f>
         <v>21817.365140000009</v>
       </c>
       <c r="AR7" s="4"/>
@@ -3105,32 +3100,32 @@
         <v>6.6000000000000003E-2</v>
       </c>
       <c r="W8" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>475995.234</v>
       </c>
       <c r="X8" s="4">
         <v>475995.23</v>
       </c>
       <c r="Y8" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>475995.23</v>
       </c>
       <c r="Z8" s="4">
-        <f t="shared" ref="Z8:Z10" si="16">W8-X8</f>
+        <f t="shared" ref="Z8:Z10" si="12">W8-X8</f>
         <v>4.0000000153668225E-3</v>
       </c>
       <c r="AA8" s="4"/>
       <c r="AB8" s="4"/>
       <c r="AC8" s="4">
-        <v>6569639.2000000002</v>
+        <v>6093643.9700000007</v>
       </c>
       <c r="AD8" s="4">
-        <f t="shared" si="11"/>
-        <v>6569639.2000000002</v>
+        <f t="shared" si="9"/>
+        <v>6093643.9700000007</v>
       </c>
       <c r="AE8" s="4">
-        <f t="shared" si="12"/>
-        <v>0.91092548040092358</v>
+        <f>AC8/M8</f>
+        <v>0.84492548095555098</v>
       </c>
       <c r="AF8" s="4"/>
       <c r="AG8" s="4"/>
@@ -3145,18 +3140,18 @@
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="AN8" s="4">
-        <f t="shared" si="13"/>
+        <f>M8*AM8</f>
         <v>245209.66600000003</v>
       </c>
       <c r="AO8" s="4">
         <v>223367.73</v>
       </c>
       <c r="AP8" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>223367.73</v>
       </c>
       <c r="AQ8" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>21841.936000000016</v>
       </c>
       <c r="AR8" s="4"/>
@@ -3219,18 +3214,18 @@
         <v>0.04</v>
       </c>
       <c r="W9" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>26604.36</v>
       </c>
       <c r="X9" s="4">
         <v>0</v>
       </c>
       <c r="Y9" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Z9" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>26604.36</v>
       </c>
       <c r="AA9" s="4"/>
@@ -3239,11 +3234,11 @@
         <v>0</v>
       </c>
       <c r="AD9" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AE9" s="4">
-        <f t="shared" si="12"/>
+        <f>AC9/M9</f>
         <v>0</v>
       </c>
       <c r="AF9" s="4"/>
@@ -3260,18 +3255,18 @@
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="AN9" s="4">
-        <f t="shared" si="13"/>
+        <f>M9*AM9</f>
         <v>22613.706000000002</v>
       </c>
       <c r="AO9" s="4">
         <v>0</v>
       </c>
       <c r="AP9" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AQ9" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>22613.706000000002</v>
       </c>
       <c r="AR9" s="4"/>
@@ -3329,25 +3324,25 @@
         <v>362006.75</v>
       </c>
       <c r="Y10" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>362006.75</v>
       </c>
       <c r="Z10" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>-2.4499999708496034E-3</v>
       </c>
       <c r="AA10" s="7"/>
       <c r="AB10" s="7"/>
       <c r="AC10" s="7">
-        <v>7860688.0099999998</v>
+        <v>7498681.2599999998</v>
       </c>
       <c r="AD10" s="7">
-        <f t="shared" si="11"/>
-        <v>7860688.0099999998</v>
+        <f t="shared" si="9"/>
+        <v>7498681.2599999998</v>
       </c>
       <c r="AE10" s="7">
-        <f t="shared" si="12"/>
-        <v>0.75999710561196143</v>
+        <f>AC10/M10</f>
+        <v>0.72499710537508733</v>
       </c>
       <c r="AF10" s="7"/>
       <c r="AG10" s="7"/>
@@ -3365,18 +3360,18 @@
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="AN10" s="7">
-        <f t="shared" si="13"/>
+        <f>M10*AM10</f>
         <v>351663.69761999999</v>
       </c>
       <c r="AO10" s="7">
         <v>111118.8</v>
       </c>
       <c r="AP10" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>111118.8</v>
       </c>
       <c r="AQ10" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>240544.89762</v>
       </c>
       <c r="AR10" s="4"/>
@@ -3427,14 +3422,14 @@
         <v>6.4000000000000001E-2</v>
       </c>
       <c r="W11" s="4">
-        <f t="shared" ref="W11:W13" si="17">M11*V11</f>
+        <f t="shared" ref="W11:W13" si="13">M11*V11</f>
         <v>5760</v>
       </c>
       <c r="X11" s="4">
         <v>5760</v>
       </c>
       <c r="Y11" s="4">
-        <f t="shared" ref="Y11:Y14" si="18">X11</f>
+        <f t="shared" ref="Y11:Y14" si="14">X11</f>
         <v>5760</v>
       </c>
       <c r="Z11" s="4">
@@ -3444,15 +3439,15 @@
       <c r="AA11" s="4"/>
       <c r="AB11" s="4"/>
       <c r="AC11" s="4">
-        <v>72000</v>
+        <v>66240</v>
       </c>
       <c r="AD11" s="7">
-        <f t="shared" si="11"/>
-        <v>72000</v>
+        <f t="shared" si="9"/>
+        <v>66240</v>
       </c>
       <c r="AE11" s="4">
-        <f t="shared" ref="AE11:AE13" si="19">AC11/M11</f>
-        <v>0.8</v>
+        <f>AC11/M11</f>
+        <v>0.73599999999999999</v>
       </c>
       <c r="AF11" s="4"/>
       <c r="AG11" s="4"/>
@@ -3470,18 +3465,18 @@
         <v>5.6000000000000001E-2</v>
       </c>
       <c r="AN11" s="4">
-        <f t="shared" ref="AN11:AN14" si="20">M11*AM11</f>
+        <f>M11*AM11</f>
         <v>5040</v>
       </c>
       <c r="AO11" s="4">
         <v>5040</v>
       </c>
       <c r="AP11" s="4">
-        <f t="shared" ref="AP11:AP14" si="21">AO11</f>
+        <f t="shared" ref="AP11:AP14" si="15">AO11</f>
         <v>5040</v>
       </c>
       <c r="AQ11" s="4">
-        <f t="shared" ref="AQ11:AQ14" si="22">AN11-AO11</f>
+        <f t="shared" ref="AQ11:AQ14" si="16">AN11-AO11</f>
         <v>0</v>
       </c>
       <c r="AR11" s="4"/>
@@ -3532,32 +3527,32 @@
         <v>8.5999999999999993E-2</v>
       </c>
       <c r="W12" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>47471.999999999993</v>
       </c>
       <c r="X12" s="4">
         <v>41668.089999999997</v>
       </c>
       <c r="Y12" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>41668.089999999997</v>
       </c>
       <c r="Z12" s="4">
-        <f t="shared" ref="Z12:Z14" si="23">W12-X12</f>
+        <f t="shared" ref="Z12:Z14" si="17">W12-X12</f>
         <v>5803.9099999999962</v>
       </c>
       <c r="AA12" s="4"/>
       <c r="AB12" s="4"/>
       <c r="AC12" s="4">
-        <v>496800</v>
+        <v>455131.91000000003</v>
       </c>
       <c r="AD12" s="7">
-        <f t="shared" si="11"/>
-        <v>496800</v>
+        <f t="shared" si="9"/>
+        <v>455131.91000000003</v>
       </c>
       <c r="AE12" s="4">
-        <f t="shared" si="19"/>
-        <v>0.9</v>
+        <f>AC12/M12</f>
+        <v>0.82451432971014493</v>
       </c>
       <c r="AF12" s="4"/>
       <c r="AG12" s="4"/>
@@ -3579,11 +3574,11 @@
         <v>16263.2</v>
       </c>
       <c r="AP12" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>16263.2</v>
       </c>
       <c r="AQ12" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AR12" s="4"/>
@@ -3646,32 +3641,32 @@
         <v>5.6000000000000001E-2</v>
       </c>
       <c r="W13" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>1614672.9088000001</v>
       </c>
       <c r="X13" s="4">
         <v>1614673</v>
       </c>
       <c r="Y13" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>1614673</v>
       </c>
       <c r="Z13" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
         <v>-9.119999990798533E-2</v>
       </c>
       <c r="AA13" s="4"/>
       <c r="AB13" s="4"/>
       <c r="AC13" s="4">
-        <v>22666755.800000001</v>
+        <v>21052082.800000001</v>
       </c>
       <c r="AD13" s="4">
-        <f t="shared" ref="AD13:AD14" si="24">AC13</f>
-        <v>22666755.800000001</v>
+        <f t="shared" ref="AD13:AD14" si="18">AC13</f>
+        <v>21052082.800000001</v>
       </c>
       <c r="AE13" s="4">
-        <f t="shared" si="19"/>
-        <v>0.78612721987349909</v>
+        <f>AC13/M13</f>
+        <v>0.73012721671050562</v>
       </c>
       <c r="AF13" s="4"/>
       <c r="AG13" s="4"/>
@@ -3687,16 +3682,16 @@
       </c>
       <c r="AM13" s="4"/>
       <c r="AN13" s="4">
-        <f t="shared" si="20"/>
+        <f>M13*AM13</f>
         <v>0</v>
       </c>
       <c r="AO13" s="4"/>
       <c r="AP13" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AQ13" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AR13" s="4"/>
@@ -3764,11 +3759,11 @@
       </c>
       <c r="X14" s="7"/>
       <c r="Y14" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Z14" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
         <v>247840</v>
       </c>
       <c r="AA14" s="7"/>
@@ -3777,7 +3772,7 @@
         <v>3500000</v>
       </c>
       <c r="AD14" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>3500000</v>
       </c>
       <c r="AE14" s="7">
@@ -3798,16 +3793,16 @@
       </c>
       <c r="AM14" s="7"/>
       <c r="AN14" s="7">
-        <f t="shared" si="20"/>
+        <f>M14*AM14</f>
         <v>0</v>
       </c>
       <c r="AO14" s="7"/>
       <c r="AP14" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AQ14" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AR14" s="4"/>
@@ -3887,15 +3882,15 @@
       <c r="AA15" s="4"/>
       <c r="AB15" s="4"/>
       <c r="AC15" s="4">
-        <v>1800000</v>
+        <v>1727596</v>
       </c>
       <c r="AD15" s="4">
         <f t="shared" si="2"/>
-        <v>1800000</v>
+        <v>1727596</v>
       </c>
       <c r="AE15" s="7">
         <f>AC15/M15</f>
-        <v>0.99442459278312922</v>
+        <v>0.95442441599653494</v>
       </c>
       <c r="AF15" s="4"/>
       <c r="AG15" s="4"/>
@@ -3911,7 +3906,7 @@
       </c>
       <c r="AM15" s="4"/>
       <c r="AN15" s="4">
-        <f t="shared" si="8"/>
+        <f>M15*AM15</f>
         <v>0</v>
       </c>
       <c r="AO15" s="4"/>
@@ -3990,25 +3985,25 @@
         <v>362006.75</v>
       </c>
       <c r="Y16" s="7">
-        <f t="shared" ref="Y16:Y17" si="25">X16</f>
+        <f t="shared" ref="Y16:Y17" si="19">X16</f>
         <v>362006.75</v>
       </c>
       <c r="Z16" s="7">
-        <f t="shared" ref="Z16" si="26">W16-X16</f>
+        <f t="shared" ref="Z16" si="20">W16-X16</f>
         <v>-2.4499999708496034E-3</v>
       </c>
       <c r="AA16" s="7"/>
       <c r="AB16" s="7"/>
       <c r="AC16" s="7">
-        <v>7860688.0099999998</v>
+        <v>7498681.2599999998</v>
       </c>
       <c r="AD16" s="7">
-        <f t="shared" ref="AD16:AD17" si="27">AC16</f>
-        <v>7860688.0099999998</v>
+        <f t="shared" ref="AD16:AD17" si="21">AC16</f>
+        <v>7498681.2599999998</v>
       </c>
       <c r="AE16" s="7">
-        <f t="shared" ref="AE16" si="28">AC16/M16</f>
-        <v>0.75999710561196143</v>
+        <f>AC16/M16</f>
+        <v>0.72499710537508733</v>
       </c>
       <c r="AF16" s="7"/>
       <c r="AG16" s="7"/>
@@ -4019,25 +4014,25 @@
       <c r="AJ16" s="7"/>
       <c r="AK16" s="7"/>
       <c r="AL16" s="7">
-        <f t="shared" ref="AL16:AL17" si="29">AH16</f>
+        <f t="shared" ref="AL16:AL17" si="22">AH16</f>
         <v>7748729.1299999999</v>
       </c>
       <c r="AM16" s="7">
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="AN16" s="7">
-        <f t="shared" ref="AN16" si="30">M16*AM16</f>
+        <f>M16*AM16</f>
         <v>351663.69761999999</v>
       </c>
       <c r="AO16" s="7">
         <v>111118.8</v>
       </c>
       <c r="AP16" s="7">
-        <f t="shared" ref="AP16" si="31">AO16</f>
+        <f t="shared" ref="AP16" si="23">AO16</f>
         <v>111118.8</v>
       </c>
       <c r="AQ16" s="7">
-        <f t="shared" ref="AQ16" si="32">AN16-AO16</f>
+        <f t="shared" ref="AQ16" si="24">AN16-AO16</f>
         <v>240544.89762</v>
       </c>
       <c r="AR16" s="4"/>
@@ -4107,7 +4102,7 @@
         <v>505116</v>
       </c>
       <c r="Y17" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>505116</v>
       </c>
       <c r="Z17" s="7">
@@ -4117,15 +4112,15 @@
       <c r="AA17" s="7"/>
       <c r="AB17" s="7"/>
       <c r="AC17" s="7">
-        <v>8081848.8399999999</v>
+        <v>7576732.8399999999</v>
       </c>
       <c r="AD17" s="7">
-        <f t="shared" si="27"/>
-        <v>8081848.8399999999</v>
+        <f t="shared" si="21"/>
+        <v>7576732.8399999999</v>
       </c>
       <c r="AE17" s="7">
-        <f t="shared" si="7"/>
-        <v>0.79999981944729481</v>
+        <f>AC17/M17</f>
+        <v>0.74999978643505405</v>
       </c>
       <c r="AF17" s="7"/>
       <c r="AG17" s="7"/>
@@ -4136,12 +4131,12 @@
       <c r="AJ17" s="7"/>
       <c r="AK17" s="7"/>
       <c r="AL17" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="22"/>
         <v>7517811.9900000002</v>
       </c>
       <c r="AM17" s="7"/>
       <c r="AN17" s="7">
-        <f t="shared" si="8"/>
+        <f>M17*AM17</f>
         <v>0</v>
       </c>
       <c r="AO17" s="7">
@@ -4229,15 +4224,15 @@
       <c r="AA18" s="4"/>
       <c r="AB18" s="4"/>
       <c r="AC18" s="4">
-        <v>4236242</v>
+        <v>4020242</v>
       </c>
       <c r="AD18" s="4">
         <f t="shared" si="2"/>
-        <v>4236242</v>
+        <v>4020242</v>
       </c>
       <c r="AE18" s="4">
-        <f t="shared" si="7"/>
-        <v>0.78448925925925928</v>
+        <f>AC18/M18</f>
+        <v>0.74448925925925924</v>
       </c>
       <c r="AF18" s="4"/>
       <c r="AG18" s="4"/>
@@ -4255,7 +4250,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="AN18" s="4">
-        <f t="shared" si="8"/>
+        <f>M18*AM18</f>
         <v>183600</v>
       </c>
       <c r="AO18" s="4">
@@ -4343,13 +4338,15 @@
       </c>
       <c r="AA19" s="4"/>
       <c r="AB19" s="4"/>
-      <c r="AC19" s="4"/>
+      <c r="AC19" s="4">
+        <v>0</v>
+      </c>
       <c r="AD19" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AE19" s="4">
-        <f t="shared" si="7"/>
+        <f>AC19/M19</f>
         <v>0</v>
       </c>
       <c r="AF19" s="4"/>
@@ -4364,7 +4361,7 @@
       </c>
       <c r="AM19" s="4"/>
       <c r="AN19" s="4">
-        <f t="shared" si="8"/>
+        <f>M19*AM19</f>
         <v>0</v>
       </c>
       <c r="AO19" s="4"/>
@@ -4451,15 +4448,15 @@
       <c r="AA20" s="4"/>
       <c r="AB20" s="4"/>
       <c r="AC20" s="4">
-        <v>930000</v>
+        <v>886173</v>
       </c>
       <c r="AD20" s="4">
         <f t="shared" si="2"/>
-        <v>930000</v>
+        <v>886173</v>
       </c>
       <c r="AE20" s="4">
-        <f t="shared" si="7"/>
-        <v>0.8488081091293419</v>
+        <f>AC20/M20</f>
+        <v>0.80880734246395303</v>
       </c>
       <c r="AF20" s="4"/>
       <c r="AG20" s="4"/>
@@ -4477,7 +4474,7 @@
         <v>3.4599999999999999E-2</v>
       </c>
       <c r="AN20" s="4">
-        <f t="shared" si="8"/>
+        <f>M20*AM20</f>
         <v>37909.628400000001</v>
       </c>
       <c r="AO20" s="4">
@@ -4566,15 +4563,15 @@
       <c r="AA21" s="4"/>
       <c r="AB21" s="4"/>
       <c r="AC21" s="4">
-        <v>3132050</v>
+        <v>2836050</v>
       </c>
       <c r="AD21" s="4">
         <f t="shared" si="2"/>
-        <v>3132050</v>
+        <v>2836050</v>
       </c>
       <c r="AE21" s="4">
-        <f t="shared" si="7"/>
-        <v>0.42325000000000002</v>
+        <f>AC21/M21</f>
+        <v>0.38324999999999998</v>
       </c>
       <c r="AF21" s="4"/>
       <c r="AG21" s="4"/>
@@ -4592,7 +4589,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="AN21" s="4">
-        <f t="shared" si="8"/>
+        <f>M21*AM21</f>
         <v>251600.00000000003</v>
       </c>
       <c r="AO21" s="4">
@@ -4680,13 +4677,15 @@
       </c>
       <c r="AA22" s="4"/>
       <c r="AB22" s="4"/>
-      <c r="AC22" s="4"/>
+      <c r="AC22" s="4">
+        <v>0</v>
+      </c>
       <c r="AD22" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AE22" s="4">
-        <f t="shared" si="7"/>
+        <f>AC22/M22</f>
         <v>0</v>
       </c>
       <c r="AF22" s="4"/>
@@ -4703,7 +4702,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="AN22" s="4">
-        <f t="shared" si="8"/>
+        <f>M22*AM22</f>
         <v>57086.000000000007</v>
       </c>
       <c r="AO22" s="4">
@@ -4794,15 +4793,15 @@
       <c r="AA23" s="4"/>
       <c r="AB23" s="4"/>
       <c r="AC23" s="4">
-        <v>646009</v>
+        <v>618816.19999999995</v>
       </c>
       <c r="AD23" s="4">
         <f t="shared" si="2"/>
-        <v>646009</v>
+        <v>618816.19999999995</v>
       </c>
       <c r="AE23" s="4">
         <f>AC23/P23</f>
-        <v>0.95026477597010972</v>
+        <v>0.91026477597010969</v>
       </c>
       <c r="AF23" s="4"/>
       <c r="AG23" s="4"/>
@@ -4902,13 +4901,15 @@
       </c>
       <c r="AA24" s="4"/>
       <c r="AB24" s="4"/>
-      <c r="AC24" s="4"/>
+      <c r="AC24" s="4">
+        <v>0</v>
+      </c>
       <c r="AD24" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AE24" s="4">
-        <f t="shared" si="7"/>
+        <f>AC24/M24</f>
         <v>0</v>
       </c>
       <c r="AF24" s="4"/>
@@ -4923,7 +4924,7 @@
       </c>
       <c r="AM24" s="4"/>
       <c r="AN24" s="4">
-        <f t="shared" si="8"/>
+        <f>M24*AM24</f>
         <v>0</v>
       </c>
       <c r="AO24" s="4"/>
@@ -5012,15 +5013,15 @@
       <c r="AA25" s="4"/>
       <c r="AB25" s="4"/>
       <c r="AC25" s="4">
-        <v>9807180.1999999993</v>
+        <v>9439789.4399999995</v>
       </c>
       <c r="AD25" s="4">
         <f t="shared" si="2"/>
-        <v>9807180.1999999993</v>
+        <v>9439789.4399999995</v>
       </c>
       <c r="AE25" s="4">
-        <f t="shared" si="7"/>
-        <v>0.93429486993229127</v>
+        <f>AC25/M25</f>
+        <v>0.89929487040862333</v>
       </c>
       <c r="AF25" s="4"/>
       <c r="AG25" s="4"/>
@@ -5124,15 +5125,15 @@
       <c r="AA26" s="4"/>
       <c r="AB26" s="4"/>
       <c r="AC26" s="4">
-        <v>3816858</v>
+        <v>3621498</v>
       </c>
       <c r="AD26" s="4">
         <f t="shared" si="2"/>
-        <v>3816858</v>
+        <v>3621498</v>
       </c>
       <c r="AE26" s="4">
-        <f t="shared" si="7"/>
-        <v>1.1483081178915444</v>
+        <f>AC26/M26</f>
+        <v>1.0895337349013225</v>
       </c>
       <c r="AF26" s="4"/>
       <c r="AG26" s="4"/>
@@ -5239,15 +5240,15 @@
       <c r="AA27" s="4"/>
       <c r="AB27" s="4"/>
       <c r="AC27" s="4">
-        <v>14834162.02</v>
+        <v>13977390.439999999</v>
       </c>
       <c r="AD27" s="4">
         <f t="shared" si="2"/>
-        <v>14834162.02</v>
+        <v>13977390.439999999</v>
       </c>
       <c r="AE27" s="4">
-        <f t="shared" si="7"/>
-        <v>0.60599077142591495</v>
+        <f>AC27/M27</f>
+        <v>0.57099077142591492</v>
       </c>
       <c r="AF27" s="4"/>
       <c r="AG27" s="4"/>
@@ -5354,15 +5355,15 @@
       <c r="AA28" s="4"/>
       <c r="AB28" s="4"/>
       <c r="AC28" s="4">
-        <v>369939.53</v>
+        <v>337501.53</v>
       </c>
       <c r="AD28" s="4">
         <f t="shared" si="2"/>
-        <v>369939.53</v>
+        <v>337501.53</v>
       </c>
       <c r="AE28" s="4">
-        <f t="shared" si="7"/>
-        <v>0.50268372356572444</v>
+        <f>AC28/M28</f>
+        <v>0.45860610194733464</v>
       </c>
       <c r="AF28" s="4"/>
       <c r="AG28" s="4"/>
@@ -5378,7 +5379,7 @@
       </c>
       <c r="AM28" s="4"/>
       <c r="AN28" s="4">
-        <f t="shared" si="8"/>
+        <f>M28*AM28</f>
         <v>0</v>
       </c>
       <c r="AO28" s="4"/>
@@ -5465,15 +5466,15 @@
       <c r="AA29" s="4"/>
       <c r="AB29" s="4"/>
       <c r="AC29" s="4">
-        <v>6847606.6600000001</v>
+        <v>6549292.6600000001</v>
       </c>
       <c r="AD29" s="4">
         <f t="shared" si="2"/>
-        <v>6847606.6600000001</v>
+        <v>6549292.6600000001</v>
       </c>
       <c r="AE29" s="4">
-        <f t="shared" si="7"/>
-        <v>0.91817464317731423</v>
+        <f>AC29/M29</f>
+        <v>0.87817463089495029</v>
       </c>
       <c r="AF29" s="4"/>
       <c r="AG29" s="4"/>
@@ -5491,7 +5492,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="AN29" s="4">
-        <f t="shared" si="8"/>
+        <f>M29*AM29</f>
         <v>253566.82214</v>
       </c>
       <c r="AO29" s="4">
@@ -5580,15 +5581,15 @@
       <c r="AA30" s="4"/>
       <c r="AB30" s="4"/>
       <c r="AC30" s="4">
-        <v>3403065.97</v>
+        <v>3219192.08</v>
       </c>
       <c r="AD30" s="4">
         <f t="shared" si="2"/>
-        <v>3403065.97</v>
+        <v>3219192.08</v>
       </c>
       <c r="AE30" s="4">
-        <f t="shared" si="7"/>
-        <v>0.74030671393768066</v>
+        <f>AC30/M30</f>
+        <v>0.70030658567544812</v>
       </c>
       <c r="AF30" s="4"/>
       <c r="AG30" s="4"/>
@@ -5691,13 +5692,15 @@
       </c>
       <c r="AA31" s="4"/>
       <c r="AB31" s="4"/>
-      <c r="AC31" s="4"/>
+      <c r="AC31" s="4">
+        <v>0</v>
+      </c>
       <c r="AD31" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AE31" s="4">
-        <f t="shared" si="7"/>
+        <f>AC31/M31</f>
         <v>0</v>
       </c>
       <c r="AF31" s="4"/>
@@ -5712,7 +5715,7 @@
       </c>
       <c r="AM31" s="4"/>
       <c r="AN31" s="4">
-        <f t="shared" si="8"/>
+        <f>M31*AM31</f>
         <v>0</v>
       </c>
       <c r="AO31" s="4"/>
@@ -5799,15 +5802,15 @@
       <c r="AA32" s="4"/>
       <c r="AB32" s="4"/>
       <c r="AC32" s="4">
-        <v>619147</v>
+        <v>588189</v>
       </c>
       <c r="AD32" s="4">
         <f t="shared" si="2"/>
-        <v>619147</v>
+        <v>588189</v>
       </c>
       <c r="AE32" s="4">
-        <f t="shared" si="7"/>
-        <v>0.79999866655475371</v>
+        <f>AC32/M32</f>
+        <v>0.75999789336324652</v>
       </c>
       <c r="AF32" s="4"/>
       <c r="AG32" s="4"/>
@@ -5825,7 +5828,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="AN32" s="4">
-        <f t="shared" si="8"/>
+        <f>M32*AM32</f>
         <v>26313.791360000003</v>
       </c>
       <c r="AO32" s="4">
@@ -5914,15 +5917,15 @@
       <c r="AA33" s="4"/>
       <c r="AB33" s="4"/>
       <c r="AC33" s="4">
-        <v>169089</v>
+        <v>159520</v>
       </c>
       <c r="AD33" s="4">
         <f t="shared" si="2"/>
-        <v>169089</v>
+        <v>159520</v>
       </c>
       <c r="AE33" s="4">
-        <f t="shared" si="7"/>
-        <v>0.70992702936459284</v>
+        <f>AC33/M33</f>
+        <v>0.66975119448479703</v>
       </c>
       <c r="AF33" s="4"/>
       <c r="AG33" s="4"/>
@@ -5940,7 +5943,7 @@
         <v>3.4599999999999999E-2</v>
       </c>
       <c r="AN33" s="4">
-        <f t="shared" si="8"/>
+        <f>M33*AM33</f>
         <v>8240.9588000000003</v>
       </c>
       <c r="AO33" s="4">
@@ -6029,15 +6032,15 @@
       <c r="AA34" s="4"/>
       <c r="AB34" s="4"/>
       <c r="AC34" s="4">
-        <v>6131964.8099999996</v>
+        <v>5873726.6899999995</v>
       </c>
       <c r="AD34" s="4">
         <f t="shared" si="2"/>
-        <v>6131964.8099999996</v>
+        <v>5873726.6899999995</v>
       </c>
       <c r="AE34" s="4">
-        <f t="shared" si="7"/>
-        <v>0.94981557858533872</v>
+        <f>AC34/M34</f>
+        <v>0.9098155790810053</v>
       </c>
       <c r="AF34" s="4"/>
       <c r="AG34" s="4"/>
@@ -6055,7 +6058,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="AN34" s="4">
-        <f t="shared" si="8"/>
+        <f>M34*AM34</f>
         <v>219502.40472000002</v>
       </c>
       <c r="AO34" s="4">
@@ -6144,15 +6147,15 @@
       <c r="AA35" s="4"/>
       <c r="AB35" s="4"/>
       <c r="AC35" s="4">
-        <v>1250000</v>
+        <v>1175600</v>
       </c>
       <c r="AD35" s="4">
         <f t="shared" si="2"/>
-        <v>1250000</v>
+        <v>1175600</v>
       </c>
       <c r="AE35" s="4">
-        <f t="shared" si="7"/>
-        <v>0.67204301075268813</v>
+        <f>AC35/M35</f>
+        <v>0.63204301075268821</v>
       </c>
       <c r="AF35" s="4"/>
       <c r="AG35" s="4"/>
@@ -6170,7 +6173,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="AN35" s="4">
-        <f t="shared" si="8"/>
+        <f>M35*AM35</f>
         <v>63240.000000000007</v>
       </c>
       <c r="AO35" s="4">
@@ -6259,15 +6262,15 @@
       <c r="AA36" s="4"/>
       <c r="AB36" s="4"/>
       <c r="AC36" s="4">
-        <v>2950877.69</v>
+        <v>2868851.59</v>
       </c>
       <c r="AD36" s="4">
         <f t="shared" si="2"/>
-        <v>2950877.69</v>
+        <v>2868851.59</v>
       </c>
       <c r="AE36" s="4">
-        <f t="shared" si="7"/>
-        <v>0.7205384972682316</v>
+        <f>AC36/M36</f>
+        <v>0.70050955366576939</v>
       </c>
       <c r="AF36" s="4"/>
       <c r="AG36" s="4"/>
@@ -6373,15 +6376,15 @@
       <c r="AA37" s="4"/>
       <c r="AB37" s="4"/>
       <c r="AC37" s="4">
-        <v>4391768.8</v>
+        <v>4227076.8</v>
       </c>
       <c r="AD37" s="4">
         <f t="shared" si="2"/>
-        <v>4391768.8</v>
+        <v>4227076.8</v>
       </c>
       <c r="AE37" s="4">
-        <f t="shared" si="7"/>
-        <v>0.79999999999999993</v>
+        <f>AC37/M37</f>
+        <v>0.76999987795350244</v>
       </c>
       <c r="AF37" s="4"/>
       <c r="AG37" s="4"/>
@@ -6399,7 +6402,7 @@
         <v>3.61E-2</v>
       </c>
       <c r="AN37" s="4">
-        <f t="shared" si="8"/>
+        <f>M37*AM37</f>
         <v>198178.56710000001</v>
       </c>
       <c r="AO37" s="4">
@@ -6489,15 +6492,15 @@
       <c r="AA38" s="4"/>
       <c r="AB38" s="4"/>
       <c r="AC38" s="4">
-        <v>4983610.42</v>
+        <v>4712019.87</v>
       </c>
       <c r="AD38" s="4">
         <f t="shared" si="2"/>
-        <v>4983610.42</v>
+        <v>4712019.87</v>
       </c>
       <c r="AE38" s="4">
-        <f t="shared" si="7"/>
-        <v>0.51096549698034022</v>
+        <f>AC38/M38</f>
+        <v>0.48311954020189812</v>
       </c>
       <c r="AF38" s="4"/>
       <c r="AG38" s="4"/>
@@ -6515,7 +6518,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="AN38" s="4">
-        <f t="shared" si="8"/>
+        <f>M38*AM38</f>
         <v>331612.90788000001</v>
       </c>
       <c r="AO38" s="4">
@@ -6604,15 +6607,15 @@
       <c r="AA39" s="4"/>
       <c r="AB39" s="4"/>
       <c r="AC39" s="4">
-        <v>370600</v>
+        <v>352607.52</v>
       </c>
       <c r="AD39" s="4">
         <f t="shared" si="2"/>
-        <v>370600</v>
+        <v>352607.52</v>
       </c>
       <c r="AE39" s="4">
-        <f t="shared" si="7"/>
-        <v>0.82389976256747266</v>
+        <f>AC39/M39</f>
+        <v>0.78389976256747262</v>
       </c>
       <c r="AF39" s="4"/>
       <c r="AG39" s="4"/>
@@ -6630,7 +6633,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="AN39" s="4">
-        <f t="shared" si="8"/>
+        <f>M39*AM39</f>
         <v>15293.608000000002</v>
       </c>
       <c r="AO39" s="4">
@@ -6719,15 +6722,15 @@
       <c r="AA40" s="4"/>
       <c r="AB40" s="4"/>
       <c r="AC40" s="4">
-        <v>1200000</v>
+        <v>1142383</v>
       </c>
       <c r="AD40" s="4">
         <f t="shared" si="2"/>
-        <v>1200000</v>
+        <v>1142383</v>
       </c>
       <c r="AE40" s="4">
-        <f t="shared" si="7"/>
-        <v>0.83308842847670639</v>
+        <f>AC40/M40</f>
+        <v>0.79308838182375441</v>
       </c>
       <c r="AF40" s="4"/>
       <c r="AG40" s="4"/>
@@ -6830,13 +6833,15 @@
       </c>
       <c r="AA41" s="4"/>
       <c r="AB41" s="4"/>
-      <c r="AC41" s="4"/>
+      <c r="AC41" s="4">
+        <v>0</v>
+      </c>
       <c r="AD41" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AE41" s="4">
-        <f t="shared" si="7"/>
+        <f>AC41/M41</f>
         <v>0</v>
       </c>
       <c r="AF41" s="4"/>
@@ -6851,7 +6856,7 @@
       </c>
       <c r="AM41" s="4"/>
       <c r="AN41" s="4">
-        <f t="shared" si="8"/>
+        <f>M41*AM41</f>
         <v>0</v>
       </c>
       <c r="AO41" s="4"/>
@@ -6938,15 +6943,15 @@
       <c r="AA42" s="4"/>
       <c r="AB42" s="4"/>
       <c r="AC42" s="4">
-        <v>3478419.92</v>
+        <v>3333102.92</v>
       </c>
       <c r="AD42" s="4">
         <f t="shared" si="2"/>
-        <v>3478419.92</v>
+        <v>3333102.92</v>
       </c>
       <c r="AE42" s="4">
-        <f t="shared" si="7"/>
-        <v>0.86172376645608229</v>
+        <f>AC42/M42</f>
+        <v>0.82572376776411915</v>
       </c>
       <c r="AF42" s="4"/>
       <c r="AG42" s="4"/>
@@ -6964,7 +6969,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="AN42" s="4">
-        <f t="shared" si="8"/>
+        <f>M42*AM42</f>
         <v>137243.83832000001</v>
       </c>
       <c r="AO42" s="4">
@@ -7053,15 +7058,15 @@
       <c r="AA43" s="4"/>
       <c r="AB43" s="4"/>
       <c r="AC43" s="4">
-        <v>936915</v>
+        <v>888995</v>
       </c>
       <c r="AD43" s="4">
         <f t="shared" si="2"/>
-        <v>936915</v>
+        <v>888995</v>
       </c>
       <c r="AE43" s="4">
-        <f t="shared" si="7"/>
-        <v>0.75776741628013244</v>
+        <f>AC43/M43</f>
+        <v>0.71901020288495365</v>
       </c>
       <c r="AF43" s="4"/>
       <c r="AG43" s="4"/>
@@ -7079,7 +7084,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="AN43" s="4">
-        <f t="shared" si="8"/>
+        <f>M43*AM43</f>
         <v>42038.11</v>
       </c>
       <c r="AO43" s="4">
@@ -7168,15 +7173,15 @@
       <c r="AA44" s="4"/>
       <c r="AB44" s="4"/>
       <c r="AC44" s="4">
-        <v>1300000</v>
+        <v>1233007</v>
       </c>
       <c r="AD44" s="4">
         <f t="shared" si="2"/>
-        <v>1300000</v>
+        <v>1233007</v>
       </c>
       <c r="AE44" s="4">
-        <f t="shared" si="7"/>
-        <v>0.77620513310425332</v>
+        <f>AC44/M44</f>
+        <v>0.73620489427190461</v>
       </c>
       <c r="AF44" s="4"/>
       <c r="AG44" s="4"/>
@@ -7194,7 +7199,7 @@
         <v>3.6600000000000001E-2</v>
       </c>
       <c r="AN44" s="4">
-        <f t="shared" si="8"/>
+        <f>M44*AM44</f>
         <v>61298.228999999999</v>
       </c>
       <c r="AO44" s="4">
@@ -7283,15 +7288,15 @@
       <c r="AA45" s="4"/>
       <c r="AB45" s="4"/>
       <c r="AC45" s="4">
-        <v>182000</v>
+        <v>159640</v>
       </c>
       <c r="AD45" s="4">
         <f t="shared" si="2"/>
-        <v>182000</v>
+        <v>159640</v>
       </c>
       <c r="AE45" s="4">
-        <f t="shared" si="7"/>
-        <v>0.7</v>
+        <f>AC45/M45</f>
+        <v>0.61399999999999999</v>
       </c>
       <c r="AF45" s="4"/>
       <c r="AG45" s="4"/>
@@ -7309,7 +7314,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="AN45" s="4">
-        <f t="shared" si="8"/>
+        <f>M45*AM45</f>
         <v>8840</v>
       </c>
       <c r="AO45" s="4"/>
@@ -7396,15 +7401,15 @@
       <c r="AA46" s="4"/>
       <c r="AB46" s="4"/>
       <c r="AC46" s="4">
-        <v>300000</v>
+        <v>297107.52</v>
       </c>
       <c r="AD46" s="4">
         <f t="shared" si="2"/>
-        <v>300000</v>
+        <v>297107.52</v>
       </c>
       <c r="AE46" s="4">
-        <f t="shared" si="7"/>
-        <v>0.28774541206725607</v>
+        <f>AC46/M46</f>
+        <v>0.28497108590226844</v>
       </c>
       <c r="AF46" s="4"/>
       <c r="AG46" s="4"/>
@@ -7422,7 +7427,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="AN46" s="4">
-        <f t="shared" si="8"/>
+        <f>M46*AM46</f>
         <v>35448.002200000003</v>
       </c>
       <c r="AO46" s="4">
@@ -7511,15 +7516,15 @@
       <c r="AA47" s="4"/>
       <c r="AB47" s="4"/>
       <c r="AC47" s="4">
-        <v>1563875.12</v>
+        <v>1438582.52</v>
       </c>
       <c r="AD47" s="4">
         <f t="shared" si="2"/>
-        <v>1563875.12</v>
+        <v>1438582.52</v>
       </c>
       <c r="AE47" s="4">
-        <f t="shared" si="7"/>
-        <v>0.44934420963408855</v>
+        <f>AC47/M47</f>
+        <v>0.41334420963408852</v>
       </c>
       <c r="AF47" s="4"/>
       <c r="AG47" s="4"/>
@@ -7537,7 +7542,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="AN47" s="4">
-        <f t="shared" si="8"/>
+        <f>M47*AM47</f>
         <v>118331.90000000001</v>
       </c>
       <c r="AO47" s="4">
@@ -7626,15 +7631,15 @@
       <c r="AA48" s="4"/>
       <c r="AB48" s="4"/>
       <c r="AC48" s="4">
-        <v>40000</v>
+        <v>35700</v>
       </c>
       <c r="AD48" s="4">
         <f t="shared" si="2"/>
-        <v>40000</v>
+        <v>35700</v>
       </c>
       <c r="AE48" s="4">
-        <f t="shared" si="7"/>
-        <v>0.8</v>
+        <f>AC48/M48</f>
+        <v>0.71399999999999997</v>
       </c>
       <c r="AF48" s="4"/>
       <c r="AG48" s="4"/>
@@ -7652,7 +7657,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="AN48" s="4">
-        <f t="shared" si="8"/>
+        <f>M48*AM48</f>
         <v>1700.0000000000002</v>
       </c>
       <c r="AO48" s="4">
@@ -7746,7 +7751,7 @@
         <v>1585970</v>
       </c>
       <c r="AE49" s="4">
-        <f t="shared" si="7"/>
+        <f>AC49/M49</f>
         <v>0.80254898427104793</v>
       </c>
       <c r="AF49" s="4"/>
@@ -7765,7 +7770,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="AN49" s="4">
-        <f t="shared" si="8"/>
+        <f>M49*AM49</f>
         <v>67189.643320000003</v>
       </c>
       <c r="AO49" s="4">
@@ -7854,15 +7859,15 @@
       <c r="AA50" s="4"/>
       <c r="AB50" s="4"/>
       <c r="AC50" s="4">
-        <v>120000</v>
+        <v>94200</v>
       </c>
       <c r="AD50" s="4">
         <f t="shared" si="2"/>
-        <v>120000</v>
+        <v>94200</v>
       </c>
       <c r="AE50" s="4">
-        <f t="shared" si="7"/>
-        <v>0.2</v>
+        <f>AC50/M50</f>
+        <v>0.157</v>
       </c>
       <c r="AF50" s="4"/>
       <c r="AG50" s="4"/>
@@ -7880,7 +7885,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="AN50" s="4">
-        <f t="shared" si="8"/>
+        <f>M50*AM50</f>
         <v>20400</v>
       </c>
       <c r="AO50" s="4">
@@ -7969,15 +7974,15 @@
       <c r="AA51" s="4"/>
       <c r="AB51" s="4"/>
       <c r="AC51" s="4">
-        <v>1578401</v>
+        <v>1457141</v>
       </c>
       <c r="AD51" s="4">
         <f t="shared" si="2"/>
-        <v>1578401</v>
+        <v>1457141</v>
       </c>
       <c r="AE51" s="4">
-        <f t="shared" si="7"/>
-        <v>0.19524954738044062</v>
+        <f>AC51/M51</f>
+        <v>0.18024958215274992</v>
       </c>
       <c r="AF51" s="4"/>
       <c r="AG51" s="4"/>
@@ -7995,7 +8000,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="AN51" s="4">
-        <f t="shared" si="8"/>
+        <f>M51*AM51</f>
         <v>274856.63716000004</v>
       </c>
       <c r="AO51" s="4">
@@ -8084,15 +8089,15 @@
       <c r="AA52" s="4"/>
       <c r="AB52" s="4"/>
       <c r="AC52" s="4">
-        <v>1360496</v>
+        <v>1262540.29</v>
       </c>
       <c r="AD52" s="4">
         <f t="shared" si="2"/>
-        <v>1360496</v>
+        <v>1262540.29</v>
       </c>
       <c r="AE52" s="4">
-        <f t="shared" si="7"/>
-        <v>0.4666044086628976</v>
+        <f>AC52/M52</f>
+        <v>0.43300889192510178</v>
       </c>
       <c r="AF52" s="4"/>
       <c r="AG52" s="4"/>
@@ -8110,7 +8115,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="AN52" s="4">
-        <f t="shared" si="8"/>
+        <f>M52*AM52</f>
         <v>99135.077040000004</v>
       </c>
       <c r="AO52" s="4">
@@ -8199,15 +8204,15 @@
       <c r="AA53" s="4"/>
       <c r="AB53" s="4"/>
       <c r="AC53" s="4">
-        <v>7596524.4199999999</v>
+        <v>7214024.4199999999</v>
       </c>
       <c r="AD53" s="4">
         <f t="shared" si="2"/>
-        <v>7596524.4199999999</v>
+        <v>7214024.4199999999</v>
       </c>
       <c r="AE53" s="4">
-        <f t="shared" si="7"/>
-        <v>0.59580583686274513</v>
+        <f>AC53/M53</f>
+        <v>0.5658058368627451</v>
       </c>
       <c r="AF53" s="4"/>
       <c r="AG53" s="4"/>
@@ -8301,15 +8306,15 @@
       <c r="AA54" s="4"/>
       <c r="AB54" s="4"/>
       <c r="AC54" s="4">
-        <v>40000</v>
+        <v>35700</v>
       </c>
       <c r="AD54" s="4">
         <f t="shared" si="2"/>
-        <v>40000</v>
+        <v>35700</v>
       </c>
       <c r="AE54" s="4">
-        <f t="shared" si="7"/>
-        <v>0.8</v>
+        <f>AC54/M54</f>
+        <v>0.71399999999999997</v>
       </c>
       <c r="AF54" s="4"/>
       <c r="AG54" s="4"/>
@@ -8327,7 +8332,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="AN54" s="4">
-        <f t="shared" si="8"/>
+        <f>M54*AM54</f>
         <v>1700.0000000000002</v>
       </c>
       <c r="AO54" s="4">
@@ -8406,15 +8411,15 @@
       <c r="AA55" s="4"/>
       <c r="AB55" s="4"/>
       <c r="AC55" s="4">
-        <v>40000</v>
+        <v>35700</v>
       </c>
       <c r="AD55" s="4">
         <f t="shared" si="2"/>
-        <v>40000</v>
+        <v>35700</v>
       </c>
       <c r="AE55" s="4">
-        <f t="shared" si="7"/>
-        <v>0.8</v>
+        <f>AC55/M55</f>
+        <v>0.71399999999999997</v>
       </c>
       <c r="AF55" s="4"/>
       <c r="AG55" s="4"/>
@@ -8432,7 +8437,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="AN55" s="4">
-        <f t="shared" si="8"/>
+        <f>M55*AM55</f>
         <v>1700.0000000000002</v>
       </c>
       <c r="AO55" s="4">
@@ -8508,13 +8513,15 @@
       </c>
       <c r="AA56" s="4"/>
       <c r="AB56" s="4"/>
-      <c r="AC56" s="4"/>
+      <c r="AC56" s="4">
+        <v>0</v>
+      </c>
       <c r="AD56" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AE56" s="4">
-        <f t="shared" si="7"/>
+        <f>AC56/M56</f>
         <v>0</v>
       </c>
       <c r="AF56" s="4"/>
@@ -8531,7 +8538,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="AN56" s="4">
-        <f t="shared" si="8"/>
+        <f>M56*AM56</f>
         <v>1700.0000000000002</v>
       </c>
       <c r="AO56" s="4"/>
@@ -8605,13 +8612,15 @@
       </c>
       <c r="AA57" s="4"/>
       <c r="AB57" s="4"/>
-      <c r="AC57" s="4"/>
+      <c r="AC57" s="4">
+        <v>0</v>
+      </c>
       <c r="AD57" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AE57" s="4">
-        <f t="shared" si="7"/>
+        <f>AC57/M57</f>
         <v>0</v>
       </c>
       <c r="AF57" s="4"/>
@@ -8628,7 +8637,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="AN57" s="4">
-        <f t="shared" si="8"/>
+        <f>M57*AM57</f>
         <v>1700.0000000000002</v>
       </c>
       <c r="AO57" s="4"/>
@@ -8703,13 +8712,15 @@
       </c>
       <c r="AA58" s="4"/>
       <c r="AB58" s="4"/>
-      <c r="AC58" s="4"/>
+      <c r="AC58" s="4">
+        <v>0</v>
+      </c>
       <c r="AD58" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AE58" s="4">
-        <f t="shared" si="7"/>
+        <f>AC58/M58</f>
         <v>0</v>
       </c>
       <c r="AF58" s="4"/>
@@ -8726,7 +8737,7 @@
       </c>
       <c r="AM58" s="4"/>
       <c r="AN58" s="4">
-        <f t="shared" si="8"/>
+        <f>M58*AM58</f>
         <v>0</v>
       </c>
       <c r="AO58" s="4"/>
@@ -8803,15 +8814,15 @@
       <c r="AA59" s="4"/>
       <c r="AB59" s="4"/>
       <c r="AC59" s="4">
-        <v>441000</v>
+        <v>386820</v>
       </c>
       <c r="AD59" s="4">
         <f t="shared" si="2"/>
-        <v>441000</v>
+        <v>386820</v>
       </c>
       <c r="AE59" s="4">
-        <f t="shared" si="7"/>
-        <v>0.7</v>
+        <f>AC59/M59</f>
+        <v>0.61399999999999999</v>
       </c>
       <c r="AF59" s="4"/>
       <c r="AG59" s="4"/>
@@ -8829,7 +8840,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="AN59" s="4">
-        <f t="shared" si="8"/>
+        <f>M59*AM59</f>
         <v>21420</v>
       </c>
       <c r="AO59" s="4">
@@ -8908,15 +8919,15 @@
       <c r="AA60" s="4"/>
       <c r="AB60" s="4"/>
       <c r="AC60" s="4">
-        <v>600000</v>
+        <v>548400</v>
       </c>
       <c r="AD60" s="4">
         <f t="shared" si="2"/>
-        <v>600000</v>
+        <v>548400</v>
       </c>
       <c r="AE60" s="4">
         <f>AC60/M60</f>
-        <v>0.48</v>
+        <v>0.43872</v>
       </c>
       <c r="AF60" s="4"/>
       <c r="AG60" s="4"/>
@@ -8934,7 +8945,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="AN60" s="4">
-        <f t="shared" si="8"/>
+        <f>M60*AM60</f>
         <v>42500</v>
       </c>
       <c r="AO60" s="4"/>
@@ -9011,15 +9022,15 @@
       <c r="AA61" s="4"/>
       <c r="AB61" s="4"/>
       <c r="AC61" s="4">
-        <v>365340.36</v>
+        <v>286792.18</v>
       </c>
       <c r="AD61" s="4">
         <f t="shared" si="2"/>
-        <v>365340.36</v>
+        <v>286792.18</v>
       </c>
       <c r="AE61" s="4">
-        <f t="shared" si="7"/>
-        <v>0.19999999671539168</v>
+        <f>AC61/M61</f>
+        <v>0.15699999599825221</v>
       </c>
       <c r="AF61" s="4"/>
       <c r="AG61" s="4"/>
@@ -9037,7 +9048,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="AN61" s="4">
-        <f t="shared" si="8"/>
+        <f>M61*AM61</f>
         <v>62107.86222000001</v>
       </c>
       <c r="AO61" s="4"/>
@@ -9115,13 +9126,15 @@
       </c>
       <c r="AA62" s="4"/>
       <c r="AB62" s="4"/>
-      <c r="AC62" s="4"/>
+      <c r="AC62" s="4">
+        <v>0</v>
+      </c>
       <c r="AD62" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AE62" s="4">
-        <f t="shared" si="7"/>
+        <f>AC62/M62</f>
         <v>0</v>
       </c>
       <c r="AF62" s="4"/>
@@ -9138,7 +9151,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="AN62" s="4">
-        <f t="shared" si="8"/>
+        <f>M62*AM62</f>
         <v>810560</v>
       </c>
       <c r="AO62" s="4"/>
@@ -9215,15 +9228,15 @@
       <c r="AA63" s="4"/>
       <c r="AB63" s="4"/>
       <c r="AC63" s="4">
-        <v>2798861.83</v>
+        <v>2786961.83</v>
       </c>
       <c r="AD63" s="4">
         <f t="shared" si="2"/>
-        <v>2798861.83</v>
+        <v>2786961.83</v>
       </c>
       <c r="AE63" s="4">
-        <f t="shared" si="7"/>
-        <v>0.27999999991996749</v>
+        <f>AC63/M63</f>
+        <v>0.2788095160013499</v>
       </c>
       <c r="AF63" s="4"/>
       <c r="AG63" s="4"/>
@@ -9239,7 +9252,7 @@
       </c>
       <c r="AM63" s="4"/>
       <c r="AN63" s="4">
-        <f t="shared" si="8"/>
+        <f>M63*AM63</f>
         <v>0</v>
       </c>
       <c r="AO63" s="4">
@@ -9315,15 +9328,15 @@
       <c r="AA64" s="4"/>
       <c r="AB64" s="4"/>
       <c r="AC64" s="4">
-        <v>176440</v>
+        <v>138505.4</v>
       </c>
       <c r="AD64" s="4">
         <f t="shared" si="2"/>
-        <v>176440</v>
+        <v>138505.4</v>
       </c>
       <c r="AE64" s="4">
-        <f t="shared" si="7"/>
-        <v>0.2</v>
+        <f>AC64/M64</f>
+        <v>0.157</v>
       </c>
       <c r="AF64" s="4"/>
       <c r="AG64" s="4"/>
@@ -9341,7 +9354,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="AN64" s="4">
-        <f t="shared" si="8"/>
+        <f>M64*AM64</f>
         <v>29994.800000000003</v>
       </c>
       <c r="AO64" s="4"/>
@@ -9423,7 +9436,7 @@
         <v>500000</v>
       </c>
       <c r="AE65" s="4">
-        <f t="shared" si="7"/>
+        <f>AC65/M65</f>
         <v>0.1186077818565676</v>
       </c>
       <c r="AF65" s="4"/>
@@ -9442,7 +9455,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="AN65" s="4">
-        <f t="shared" si="8"/>
+        <f>M65*AM65</f>
         <v>143329.55000000002</v>
       </c>
       <c r="AO65" s="4"/>
@@ -9518,13 +9531,15 @@
       </c>
       <c r="AA66" s="4"/>
       <c r="AB66" s="4"/>
-      <c r="AC66" s="4"/>
+      <c r="AC66" s="4">
+        <v>0</v>
+      </c>
       <c r="AD66" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AE66" s="4">
-        <f t="shared" si="7"/>
+        <f>AC66/M66</f>
         <v>0</v>
       </c>
       <c r="AF66" s="4"/>
@@ -9541,7 +9556,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="AN66" s="4">
-        <f t="shared" si="8"/>
+        <f>M66*AM66</f>
         <v>1700.0000000000002</v>
       </c>
       <c r="AO66" s="4"/>
@@ -9601,32 +9616,32 @@
         <v>8.5999999999999993E-2</v>
       </c>
       <c r="W67" s="4">
-        <f t="shared" ref="W67:W86" si="33">M67*V67</f>
+        <f t="shared" ref="W67:W86" si="25">M67*V67</f>
         <v>154800</v>
       </c>
       <c r="X67" s="4">
         <v>77400</v>
       </c>
       <c r="Y67" s="4">
-        <f t="shared" ref="Y67:Y86" si="34">X67</f>
+        <f t="shared" ref="Y67:Y86" si="26">X67</f>
         <v>77400</v>
       </c>
       <c r="Z67" s="4">
-        <f t="shared" ref="Z67:Z86" si="35">W67-X67</f>
+        <f t="shared" ref="Z67:Z86" si="27">W67-X67</f>
         <v>77400</v>
       </c>
       <c r="AA67" s="4"/>
       <c r="AB67" s="4"/>
       <c r="AC67" s="4">
-        <v>360000</v>
+        <v>282600</v>
       </c>
       <c r="AD67" s="4">
-        <f t="shared" ref="AD67:AD86" si="36">AC67</f>
-        <v>360000</v>
+        <f t="shared" ref="AD67:AD86" si="28">AC67</f>
+        <v>282600</v>
       </c>
       <c r="AE67" s="4">
-        <f t="shared" ref="AE67:AE86" si="37">AC67/M67</f>
-        <v>0.2</v>
+        <f>AC67/M67</f>
+        <v>0.157</v>
       </c>
       <c r="AF67" s="4"/>
       <c r="AG67" s="4"/>
@@ -9637,23 +9652,23 @@
       <c r="AJ67" s="4"/>
       <c r="AK67" s="4"/>
       <c r="AL67" s="4">
-        <f t="shared" ref="AL67:AL86" si="38">AH67</f>
+        <f t="shared" ref="AL67:AL86" si="29">AH67</f>
         <v>360000</v>
       </c>
       <c r="AM67" s="4">
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="AN67" s="4">
-        <f t="shared" ref="AN67:AN86" si="39">M67*AM67</f>
+        <f>M67*AM67</f>
         <v>61200.000000000007</v>
       </c>
       <c r="AO67" s="4"/>
       <c r="AP67" s="4">
-        <f t="shared" ref="AP67:AP86" si="40">AO67</f>
+        <f t="shared" ref="AP67:AP86" si="30">AO67</f>
         <v>0</v>
       </c>
       <c r="AQ67" s="4">
-        <f t="shared" ref="AQ67:AQ86" si="41">AN67-AO67</f>
+        <f t="shared" ref="AQ67:AQ86" si="31">AN67-AO67</f>
         <v>61200.000000000007</v>
       </c>
       <c r="AR67" s="4"/>
@@ -9704,32 +9719,32 @@
         <v>8.5999999999999993E-2</v>
       </c>
       <c r="W68" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="25"/>
         <v>5160</v>
       </c>
       <c r="X68" s="4">
         <v>5160</v>
       </c>
       <c r="Y68" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="26"/>
         <v>5160</v>
       </c>
       <c r="Z68" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AA68" s="4"/>
       <c r="AB68" s="4"/>
       <c r="AC68" s="4">
-        <v>48000</v>
+        <v>42840</v>
       </c>
       <c r="AD68" s="4">
-        <f t="shared" si="36"/>
-        <v>48000</v>
+        <f t="shared" si="28"/>
+        <v>42840</v>
       </c>
       <c r="AE68" s="4">
-        <f t="shared" si="37"/>
-        <v>0.8</v>
+        <f>AC68/M68</f>
+        <v>0.71399999999999997</v>
       </c>
       <c r="AF68" s="4"/>
       <c r="AG68" s="4"/>
@@ -9740,23 +9755,23 @@
       <c r="AJ68" s="4"/>
       <c r="AK68" s="4"/>
       <c r="AL68" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="29"/>
         <v>48000</v>
       </c>
       <c r="AM68" s="4">
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="AN68" s="4">
-        <f t="shared" si="39"/>
+        <f>M68*AM68</f>
         <v>2040.0000000000002</v>
       </c>
       <c r="AO68" s="4"/>
       <c r="AP68" s="4">
-        <f t="shared" si="40"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AQ68" s="4">
-        <f t="shared" si="41"/>
+        <f t="shared" si="31"/>
         <v>2040.0000000000002</v>
       </c>
       <c r="AR68" s="4"/>
@@ -9807,27 +9822,29 @@
         <v>8.5999999999999993E-2</v>
       </c>
       <c r="W69" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="25"/>
         <v>4128</v>
       </c>
       <c r="X69" s="4"/>
       <c r="Y69" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="Z69" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="27"/>
         <v>4128</v>
       </c>
       <c r="AA69" s="4"/>
       <c r="AB69" s="4"/>
-      <c r="AC69" s="4"/>
+      <c r="AC69" s="4">
+        <v>0</v>
+      </c>
       <c r="AD69" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AE69" s="4">
-        <f t="shared" si="37"/>
+        <f>AC69/M69</f>
         <v>0</v>
       </c>
       <c r="AF69" s="4"/>
@@ -9837,23 +9854,23 @@
       <c r="AJ69" s="4"/>
       <c r="AK69" s="4"/>
       <c r="AL69" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AM69" s="4">
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="AN69" s="4">
-        <f t="shared" si="39"/>
+        <f>M69*AM69</f>
         <v>1632.0000000000002</v>
       </c>
       <c r="AO69" s="4"/>
       <c r="AP69" s="4">
-        <f t="shared" si="40"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AQ69" s="4">
-        <f t="shared" si="41"/>
+        <f t="shared" si="31"/>
         <v>1632.0000000000002</v>
       </c>
       <c r="AR69" s="4"/>
@@ -9904,27 +9921,29 @@
         <v>0.03</v>
       </c>
       <c r="W70" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="25"/>
         <v>278962.17</v>
       </c>
       <c r="X70" s="4"/>
       <c r="Y70" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="Z70" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="27"/>
         <v>278962.17</v>
       </c>
       <c r="AA70" s="4"/>
       <c r="AB70" s="4"/>
-      <c r="AC70" s="4"/>
+      <c r="AC70" s="4">
+        <v>0</v>
+      </c>
       <c r="AD70" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AE70" s="4">
-        <f t="shared" si="37"/>
+        <f>AC70/M70</f>
         <v>0</v>
       </c>
       <c r="AF70" s="4"/>
@@ -9934,21 +9953,21 @@
       <c r="AJ70" s="4"/>
       <c r="AK70" s="4"/>
       <c r="AL70" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AM70" s="4"/>
       <c r="AN70" s="4">
-        <f t="shared" si="39"/>
+        <f>M70*AM70</f>
         <v>0</v>
       </c>
       <c r="AO70" s="4"/>
       <c r="AP70" s="4">
-        <f t="shared" si="40"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AQ70" s="4">
-        <f t="shared" si="41"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AR70" s="4"/>
@@ -9999,16 +10018,16 @@
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="W71" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="25"/>
         <v>18265.931999999997</v>
       </c>
       <c r="X71" s="4"/>
       <c r="Y71" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="Z71" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="27"/>
         <v>18265.931999999997</v>
       </c>
       <c r="AA71" s="4"/>
@@ -10017,11 +10036,11 @@
         <v>279062.84999999998</v>
       </c>
       <c r="AD71" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="28"/>
         <v>279062.84999999998</v>
       </c>
       <c r="AE71" s="4">
-        <f t="shared" si="37"/>
+        <f>AC71/M71</f>
         <v>0.54999999999999993</v>
       </c>
       <c r="AF71" s="4"/>
@@ -10033,23 +10052,23 @@
       <c r="AJ71" s="4"/>
       <c r="AK71" s="4"/>
       <c r="AL71" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="29"/>
         <v>154000</v>
       </c>
       <c r="AM71" s="4">
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="AN71" s="4">
-        <f t="shared" si="39"/>
+        <f>M71*AM71</f>
         <v>17251.157999999999</v>
       </c>
       <c r="AO71" s="4"/>
       <c r="AP71" s="4">
-        <f t="shared" si="40"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AQ71" s="4">
-        <f t="shared" si="41"/>
+        <f t="shared" si="31"/>
         <v>17251.157999999999</v>
       </c>
       <c r="AR71" s="4"/>
@@ -10100,27 +10119,29 @@
         <v>8.5999999999999993E-2</v>
       </c>
       <c r="W72" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="25"/>
         <v>4300</v>
       </c>
       <c r="X72" s="4"/>
       <c r="Y72" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="Z72" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="27"/>
         <v>4300</v>
       </c>
       <c r="AA72" s="4"/>
       <c r="AB72" s="4"/>
-      <c r="AC72" s="4"/>
+      <c r="AC72" s="4">
+        <v>0</v>
+      </c>
       <c r="AD72" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AE72" s="4">
-        <f t="shared" si="37"/>
+        <f>AC72/M72</f>
         <v>0</v>
       </c>
       <c r="AF72" s="4"/>
@@ -10130,23 +10151,23 @@
       <c r="AJ72" s="4"/>
       <c r="AK72" s="4"/>
       <c r="AL72" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AM72" s="4">
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="AN72" s="4">
-        <f t="shared" si="39"/>
+        <f>M72*AM72</f>
         <v>1700.0000000000002</v>
       </c>
       <c r="AO72" s="4"/>
       <c r="AP72" s="4">
-        <f t="shared" si="40"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AQ72" s="4">
-        <f t="shared" si="41"/>
+        <f t="shared" si="31"/>
         <v>1700.0000000000002</v>
       </c>
       <c r="AR72" s="4"/>
@@ -10197,27 +10218,29 @@
         <v>8.5999999999999993E-2</v>
       </c>
       <c r="W73" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="25"/>
         <v>6879.9999999999991</v>
       </c>
       <c r="X73" s="4"/>
       <c r="Y73" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="Z73" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="27"/>
         <v>6879.9999999999991</v>
       </c>
       <c r="AA73" s="4"/>
       <c r="AB73" s="4"/>
-      <c r="AC73" s="4"/>
+      <c r="AC73" s="4">
+        <v>0</v>
+      </c>
       <c r="AD73" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AE73" s="4">
-        <f t="shared" si="37"/>
+        <f>AC73/M73</f>
         <v>0</v>
       </c>
       <c r="AF73" s="4"/>
@@ -10227,23 +10250,23 @@
       <c r="AJ73" s="4"/>
       <c r="AK73" s="4"/>
       <c r="AL73" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AM73" s="4">
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="AN73" s="4">
-        <f t="shared" si="39"/>
+        <f>M73*AM73</f>
         <v>2720</v>
       </c>
       <c r="AO73" s="4"/>
       <c r="AP73" s="4">
-        <f t="shared" si="40"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AQ73" s="4">
-        <f t="shared" si="41"/>
+        <f t="shared" si="31"/>
         <v>2720</v>
       </c>
       <c r="AR73" s="4"/>
@@ -10294,16 +10317,16 @@
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="W74" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="25"/>
         <v>39888</v>
       </c>
       <c r="X74" s="4"/>
       <c r="Y74" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="Z74" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="27"/>
         <v>39888</v>
       </c>
       <c r="AA74" s="4"/>
@@ -10312,11 +10335,11 @@
         <v>150000</v>
       </c>
       <c r="AD74" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="28"/>
         <v>150000</v>
       </c>
       <c r="AE74" s="4">
-        <f t="shared" si="37"/>
+        <f>AC74/M74</f>
         <v>0.13537906137184116</v>
       </c>
       <c r="AF74" s="4"/>
@@ -10328,25 +10351,25 @@
       <c r="AJ74" s="4"/>
       <c r="AK74" s="4"/>
       <c r="AL74" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="29"/>
         <v>137713</v>
       </c>
       <c r="AM74" s="4">
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="AN74" s="4">
-        <f t="shared" si="39"/>
+        <f>M74*AM74</f>
         <v>37672</v>
       </c>
       <c r="AO74" s="4">
         <v>30600</v>
       </c>
       <c r="AP74" s="4">
-        <f t="shared" si="40"/>
+        <f t="shared" si="30"/>
         <v>30600</v>
       </c>
       <c r="AQ74" s="4">
-        <f t="shared" si="41"/>
+        <f t="shared" si="31"/>
         <v>7072</v>
       </c>
       <c r="AR74" s="4"/>
@@ -10397,27 +10420,29 @@
         <v>8.5999999999999993E-2</v>
       </c>
       <c r="W75" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="25"/>
         <v>4300</v>
       </c>
       <c r="X75" s="4"/>
       <c r="Y75" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="Z75" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="27"/>
         <v>4300</v>
       </c>
       <c r="AA75" s="4"/>
       <c r="AB75" s="4"/>
-      <c r="AC75" s="4"/>
+      <c r="AC75" s="4">
+        <v>0</v>
+      </c>
       <c r="AD75" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AE75" s="4">
-        <f t="shared" si="37"/>
+        <f>AC75/M75</f>
         <v>0</v>
       </c>
       <c r="AF75" s="4"/>
@@ -10427,23 +10452,23 @@
       <c r="AJ75" s="4"/>
       <c r="AK75" s="4"/>
       <c r="AL75" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AM75" s="4">
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="AN75" s="4">
-        <f t="shared" si="39"/>
+        <f>M75*AM75</f>
         <v>1700.0000000000002</v>
       </c>
       <c r="AO75" s="4"/>
       <c r="AP75" s="4">
-        <f t="shared" si="40"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AQ75" s="4">
-        <f t="shared" si="41"/>
+        <f t="shared" si="31"/>
         <v>1700.0000000000002</v>
       </c>
       <c r="AR75" s="4"/>
@@ -10494,27 +10519,29 @@
         <v>8.5999999999999993E-2</v>
       </c>
       <c r="W76" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="25"/>
         <v>3869.9999999999995</v>
       </c>
       <c r="X76" s="4"/>
       <c r="Y76" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="Z76" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="27"/>
         <v>3869.9999999999995</v>
       </c>
       <c r="AA76" s="4"/>
       <c r="AB76" s="4"/>
-      <c r="AC76" s="4"/>
+      <c r="AC76" s="4">
+        <v>0</v>
+      </c>
       <c r="AD76" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AE76" s="4">
-        <f t="shared" si="37"/>
+        <f>AC76/M76</f>
         <v>0</v>
       </c>
       <c r="AF76" s="4"/>
@@ -10524,23 +10551,23 @@
       <c r="AJ76" s="4"/>
       <c r="AK76" s="4"/>
       <c r="AL76" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AM76" s="4">
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="AN76" s="4">
-        <f t="shared" si="39"/>
+        <f>M76*AM76</f>
         <v>1530</v>
       </c>
       <c r="AO76" s="4"/>
       <c r="AP76" s="4">
-        <f t="shared" si="40"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AQ76" s="4">
-        <f t="shared" si="41"/>
+        <f t="shared" si="31"/>
         <v>1530</v>
       </c>
       <c r="AR76" s="4"/>
@@ -10591,16 +10618,16 @@
         <v>8.5999999999999993E-2</v>
       </c>
       <c r="W77" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="25"/>
         <v>177498.15199999997</v>
       </c>
       <c r="X77" s="4"/>
       <c r="Y77" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="Z77" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="27"/>
         <v>177498.15199999997</v>
       </c>
       <c r="AA77" s="4"/>
@@ -10609,11 +10636,11 @@
         <v>309589.8</v>
       </c>
       <c r="AD77" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="28"/>
         <v>309589.8</v>
       </c>
       <c r="AE77" s="4">
-        <f t="shared" si="37"/>
+        <f>AC77/M77</f>
         <v>0.15</v>
       </c>
       <c r="AF77" s="4"/>
@@ -10625,23 +10652,23 @@
       <c r="AJ77" s="4"/>
       <c r="AK77" s="4"/>
       <c r="AL77" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="29"/>
         <v>309589.8</v>
       </c>
       <c r="AM77" s="4">
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="AN77" s="4">
-        <f t="shared" si="39"/>
+        <f>M77*AM77</f>
         <v>70173.688000000009</v>
       </c>
       <c r="AO77" s="4"/>
       <c r="AP77" s="4">
-        <f t="shared" si="40"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AQ77" s="4">
-        <f t="shared" si="41"/>
+        <f t="shared" si="31"/>
         <v>70173.688000000009</v>
       </c>
       <c r="AR77" s="4"/>
@@ -10692,16 +10719,16 @@
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="W78" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="25"/>
         <v>10970.074439999999</v>
       </c>
       <c r="X78" s="4"/>
       <c r="Y78" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="Z78" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="27"/>
         <v>10970.074439999999</v>
       </c>
       <c r="AA78" s="4"/>
@@ -10710,11 +10737,11 @@
         <v>2073</v>
       </c>
       <c r="AD78" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="28"/>
         <v>2073</v>
       </c>
       <c r="AE78" s="4">
-        <f t="shared" si="37"/>
+        <f>AC78/M78</f>
         <v>6.8028708837093365E-3</v>
       </c>
       <c r="AF78" s="4"/>
@@ -10724,25 +10751,25 @@
       <c r="AJ78" s="4"/>
       <c r="AK78" s="4"/>
       <c r="AL78" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AM78" s="4">
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="AN78" s="4">
-        <f t="shared" si="39"/>
+        <f>M78*AM78</f>
         <v>10360.62586</v>
       </c>
       <c r="AO78" s="4">
         <v>2073</v>
       </c>
       <c r="AP78" s="4">
-        <f t="shared" si="40"/>
+        <f t="shared" si="30"/>
         <v>2073</v>
       </c>
       <c r="AQ78" s="4">
-        <f t="shared" si="41"/>
+        <f t="shared" si="31"/>
         <v>8287.6258600000001</v>
       </c>
       <c r="AR78" s="4"/>
@@ -10793,27 +10820,29 @@
         <v>8.5999999999999993E-2</v>
       </c>
       <c r="W79" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="25"/>
         <v>63446.499999999993</v>
       </c>
       <c r="X79" s="4"/>
       <c r="Y79" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="Z79" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="27"/>
         <v>63446.499999999993</v>
       </c>
       <c r="AA79" s="4"/>
       <c r="AB79" s="4"/>
-      <c r="AC79" s="4"/>
+      <c r="AC79" s="4">
+        <v>0</v>
+      </c>
       <c r="AD79" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AE79" s="4">
-        <f t="shared" si="37"/>
+        <f>AC79/M79</f>
         <v>0</v>
       </c>
       <c r="AF79" s="4"/>
@@ -10823,23 +10852,23 @@
       <c r="AJ79" s="4"/>
       <c r="AK79" s="4"/>
       <c r="AL79" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AM79" s="4">
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="AN79" s="4">
-        <f t="shared" si="39"/>
+        <f>M79*AM79</f>
         <v>25083.5</v>
       </c>
       <c r="AO79" s="4"/>
       <c r="AP79" s="4">
-        <f t="shared" si="40"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AQ79" s="4">
-        <f t="shared" si="41"/>
+        <f t="shared" si="31"/>
         <v>25083.5</v>
       </c>
       <c r="AR79" s="4"/>
@@ -10890,27 +10919,29 @@
         <v>8.5999999999999993E-2</v>
       </c>
       <c r="W80" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="25"/>
         <v>4300</v>
       </c>
       <c r="X80" s="4"/>
       <c r="Y80" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="Z80" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="27"/>
         <v>4300</v>
       </c>
       <c r="AA80" s="4"/>
       <c r="AB80" s="4"/>
-      <c r="AC80" s="4"/>
+      <c r="AC80" s="4">
+        <v>0</v>
+      </c>
       <c r="AD80" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AE80" s="4">
-        <f t="shared" si="37"/>
+        <f>AC80/M80</f>
         <v>0</v>
       </c>
       <c r="AF80" s="4"/>
@@ -10920,23 +10951,23 @@
       <c r="AJ80" s="4"/>
       <c r="AK80" s="4"/>
       <c r="AL80" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AM80" s="4">
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="AN80" s="4">
-        <f t="shared" si="39"/>
+        <f>M80*AM80</f>
         <v>1700.0000000000002</v>
       </c>
       <c r="AO80" s="4"/>
       <c r="AP80" s="4">
-        <f t="shared" si="40"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AQ80" s="4">
-        <f t="shared" si="41"/>
+        <f t="shared" si="31"/>
         <v>1700.0000000000002</v>
       </c>
       <c r="AR80" s="4"/>
@@ -10987,16 +11018,16 @@
         <v>0.03</v>
       </c>
       <c r="W81" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="25"/>
         <v>259482.32400000002</v>
       </c>
       <c r="X81" s="4"/>
       <c r="Y81" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="Z81" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="27"/>
         <v>259482.32400000002</v>
       </c>
       <c r="AA81" s="4"/>
@@ -11005,11 +11036,11 @@
         <v>7657.4</v>
       </c>
       <c r="AD81" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="28"/>
         <v>7657.4</v>
       </c>
       <c r="AE81" s="4">
-        <f t="shared" si="37"/>
+        <f>AC81/M81</f>
         <v>8.8530885826350152E-4</v>
       </c>
       <c r="AF81" s="4"/>
@@ -11021,23 +11052,23 @@
       <c r="AJ81" s="4"/>
       <c r="AK81" s="4"/>
       <c r="AL81" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="29"/>
         <v>439657.4</v>
       </c>
       <c r="AM81" s="4">
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="AN81" s="4">
-        <f t="shared" si="39"/>
+        <f>M81*AM81</f>
         <v>294079.96720000007</v>
       </c>
       <c r="AO81" s="4"/>
       <c r="AP81" s="4">
-        <f t="shared" si="40"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AQ81" s="4">
-        <f t="shared" si="41"/>
+        <f t="shared" si="31"/>
         <v>294079.96720000007</v>
       </c>
       <c r="AR81" s="4"/>
@@ -11088,16 +11119,16 @@
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="W82" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="25"/>
         <v>23760</v>
       </c>
       <c r="X82" s="4"/>
       <c r="Y82" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="Z82" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="27"/>
         <v>23760</v>
       </c>
       <c r="AA82" s="4"/>
@@ -11106,11 +11137,11 @@
         <v>198000</v>
       </c>
       <c r="AD82" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="28"/>
         <v>198000</v>
       </c>
       <c r="AE82" s="4">
-        <f t="shared" si="37"/>
+        <f>AC82/M82</f>
         <v>0.3</v>
       </c>
       <c r="AF82" s="4"/>
@@ -11122,25 +11153,25 @@
       <c r="AJ82" s="4"/>
       <c r="AK82" s="4"/>
       <c r="AL82" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="29"/>
         <v>151800</v>
       </c>
       <c r="AM82" s="4">
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="AN82" s="4">
-        <f t="shared" si="39"/>
+        <f>M82*AM82</f>
         <v>22440</v>
       </c>
       <c r="AO82" s="4">
         <v>6732</v>
       </c>
       <c r="AP82" s="4">
-        <f t="shared" si="40"/>
+        <f t="shared" si="30"/>
         <v>6732</v>
       </c>
       <c r="AQ82" s="4">
-        <f t="shared" si="41"/>
+        <f t="shared" si="31"/>
         <v>15708</v>
       </c>
       <c r="AR82" s="4"/>
@@ -11196,22 +11227,24 @@
       </c>
       <c r="X83" s="4"/>
       <c r="Y83" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="Z83" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="27"/>
         <v>21328</v>
       </c>
       <c r="AA83" s="4"/>
       <c r="AB83" s="4"/>
-      <c r="AC83" s="4"/>
+      <c r="AC83" s="4">
+        <v>0</v>
+      </c>
       <c r="AD83" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AE83" s="4">
-        <f t="shared" si="37"/>
+        <f>AC83/M83</f>
         <v>0</v>
       </c>
       <c r="AF83" s="4"/>
@@ -11221,23 +11254,23 @@
       <c r="AJ83" s="4"/>
       <c r="AK83" s="4"/>
       <c r="AL83" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AM83" s="4">
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="AN83" s="4">
-        <f t="shared" si="39"/>
+        <f>M83*AM83</f>
         <v>8432</v>
       </c>
       <c r="AO83" s="4"/>
       <c r="AP83" s="4">
-        <f t="shared" si="40"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AQ83" s="4">
-        <f t="shared" si="41"/>
+        <f t="shared" si="31"/>
         <v>8432</v>
       </c>
       <c r="AR83" s="4"/>
@@ -11288,16 +11321,16 @@
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="W84" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="25"/>
         <v>16740</v>
       </c>
       <c r="X84" s="4"/>
       <c r="Y84" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="Z84" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="27"/>
         <v>16740</v>
       </c>
       <c r="AA84" s="4"/>
@@ -11306,11 +11339,11 @@
         <v>4743</v>
       </c>
       <c r="AD84" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="28"/>
         <v>4743</v>
       </c>
       <c r="AE84" s="4">
-        <f t="shared" si="37"/>
+        <f>AC84/M84</f>
         <v>1.0200000000000001E-2</v>
       </c>
       <c r="AF84" s="4"/>
@@ -11320,25 +11353,25 @@
       <c r="AJ84" s="4"/>
       <c r="AK84" s="4"/>
       <c r="AL84" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AM84" s="4">
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="AN84" s="4">
-        <f t="shared" si="39"/>
+        <f>M84*AM84</f>
         <v>15810.000000000002</v>
       </c>
       <c r="AO84" s="4">
         <v>4743</v>
       </c>
       <c r="AP84" s="4">
-        <f t="shared" si="40"/>
+        <f t="shared" si="30"/>
         <v>4743</v>
       </c>
       <c r="AQ84" s="4">
-        <f t="shared" si="41"/>
+        <f t="shared" si="31"/>
         <v>11067.000000000002</v>
       </c>
       <c r="AR84" s="4"/>
@@ -11389,27 +11422,29 @@
         <v>8.5999999999999993E-2</v>
       </c>
       <c r="W85" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="25"/>
         <v>5590</v>
       </c>
       <c r="X85" s="4"/>
       <c r="Y85" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="Z85" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="27"/>
         <v>5590</v>
       </c>
       <c r="AA85" s="4"/>
       <c r="AB85" s="4"/>
-      <c r="AC85" s="4"/>
+      <c r="AC85" s="4">
+        <v>0</v>
+      </c>
       <c r="AD85" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AE85" s="4">
-        <f t="shared" si="37"/>
+        <f>AC85/M85</f>
         <v>0</v>
       </c>
       <c r="AF85" s="4"/>
@@ -11419,23 +11454,23 @@
       <c r="AJ85" s="4"/>
       <c r="AK85" s="4"/>
       <c r="AL85" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AM85" s="4">
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="AN85" s="4">
-        <f t="shared" si="39"/>
+        <f>M85*AM85</f>
         <v>2210</v>
       </c>
       <c r="AO85" s="4"/>
       <c r="AP85" s="4">
-        <f t="shared" si="40"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AQ85" s="4">
-        <f t="shared" si="41"/>
+        <f t="shared" si="31"/>
         <v>2210</v>
       </c>
       <c r="AR85" s="4"/>
@@ -11486,27 +11521,29 @@
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="W86" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="25"/>
         <v>34844.437440000002</v>
       </c>
       <c r="X86" s="4"/>
       <c r="Y86" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="Z86" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="27"/>
         <v>34844.437440000002</v>
       </c>
       <c r="AA86" s="4"/>
       <c r="AB86" s="4"/>
-      <c r="AC86" s="4"/>
+      <c r="AC86" s="4">
+        <v>0</v>
+      </c>
       <c r="AD86" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AE86" s="4">
-        <f t="shared" si="37"/>
+        <f>AC86/M86</f>
         <v>0</v>
       </c>
       <c r="AF86" s="4"/>
@@ -11516,21 +11553,21 @@
       <c r="AJ86" s="4"/>
       <c r="AK86" s="4"/>
       <c r="AL86" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AM86" s="4"/>
       <c r="AN86" s="4">
-        <f t="shared" si="39"/>
+        <f>M86*AM86</f>
         <v>0</v>
       </c>
       <c r="AO86" s="4"/>
       <c r="AP86" s="4">
-        <f t="shared" si="40"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AQ86" s="4">
-        <f t="shared" si="41"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AR86" s="4"/>
